--- a/exported_dfs/213527 United States_combined.xlsx
+++ b/exported_dfs/213527 United States_combined.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ae3fc46a81f6f95/Desktop/Auto-Parameters-Tuning/exported_dfs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_6943C60E5F11D13B08FF31D2F87AC3C1A1DCA9DC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B418E3D4-B1D6-414E-A83F-C486E68F05C5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="11">
   <si>
     <t>Item</t>
   </si>
@@ -37,10 +31,7 @@
     <t>Act Orders Final Rev</t>
   </si>
   <si>
-    <t>Fcst Stat Prelim Rev_OutliersPercent_5</t>
-  </si>
-  <si>
-    <t>Fcst Stat Prelim Rev_EnableNonNegRegr_1</t>
+    <t>Fcst Stat Prelim Rev_FitValidationSensitivity_1.7</t>
   </si>
   <si>
     <t>End of History</t>
@@ -61,11 +52,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,21 +120,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -181,7 +164,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -215,7 +198,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -250,10 +232,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -426,20 +407,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,19 +439,16 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
         <v>44501</v>
@@ -485,15 +457,15 @@
         <v>5277</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2">
         <v>44531</v>
@@ -504,19 +476,16 @@
       <c r="F3">
         <v>5119</v>
       </c>
-      <c r="G3">
-        <v>5119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
         <v>44562</v>
@@ -527,19 +496,16 @@
       <c r="F4">
         <v>5119</v>
       </c>
-      <c r="G4">
-        <v>5119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
         <v>44593</v>
@@ -550,19 +516,16 @@
       <c r="F5">
         <v>5276</v>
       </c>
-      <c r="G5">
-        <v>5276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2">
         <v>44621</v>
@@ -573,19 +536,16 @@
       <c r="F6">
         <v>5276</v>
       </c>
-      <c r="G6">
-        <v>5276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
         <v>44652</v>
@@ -596,19 +556,16 @@
       <c r="F7">
         <v>5432</v>
       </c>
-      <c r="G7">
-        <v>5432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
         <v>44682</v>
@@ -619,19 +576,16 @@
       <c r="F8">
         <v>5432</v>
       </c>
-      <c r="G8">
-        <v>5432</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2">
         <v>44713</v>
@@ -642,19 +596,16 @@
       <c r="F9">
         <v>5587</v>
       </c>
-      <c r="G9">
-        <v>5587</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2">
         <v>44743</v>
@@ -665,19 +616,16 @@
       <c r="F10">
         <v>5587</v>
       </c>
-      <c r="G10">
-        <v>5587</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
         <v>44774</v>
@@ -688,19 +636,16 @@
       <c r="F11">
         <v>5741</v>
       </c>
-      <c r="G11">
-        <v>5741</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2">
         <v>44805</v>
@@ -711,19 +656,16 @@
       <c r="F12">
         <v>5741</v>
       </c>
-      <c r="G12">
-        <v>5741</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2">
         <v>44835</v>
@@ -734,19 +676,16 @@
       <c r="F13">
         <v>5893</v>
       </c>
-      <c r="G13">
-        <v>5893</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2">
         <v>44866</v>
@@ -757,19 +696,16 @@
       <c r="F14">
         <v>5893</v>
       </c>
-      <c r="G14">
-        <v>5893</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2">
         <v>44896</v>
@@ -780,19 +716,16 @@
       <c r="F15">
         <v>6044</v>
       </c>
-      <c r="G15">
-        <v>6044</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2">
         <v>44927</v>
@@ -803,19 +736,16 @@
       <c r="F16">
         <v>6194</v>
       </c>
-      <c r="G16">
-        <v>6194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2">
         <v>44958</v>
@@ -826,19 +756,16 @@
       <c r="F17">
         <v>6342</v>
       </c>
-      <c r="G17">
-        <v>6342</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2">
         <v>44986</v>
@@ -849,19 +776,16 @@
       <c r="F18">
         <v>6489</v>
       </c>
-      <c r="G18">
-        <v>6489</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2">
         <v>45017</v>
@@ -872,19 +796,16 @@
       <c r="F19">
         <v>6635</v>
       </c>
-      <c r="G19">
-        <v>6635</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="2">
         <v>45047</v>
@@ -895,19 +816,16 @@
       <c r="F20">
         <v>6779</v>
       </c>
-      <c r="G20">
-        <v>6779</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2">
         <v>45078</v>
@@ -918,19 +836,16 @@
       <c r="F21">
         <v>6922</v>
       </c>
-      <c r="G21">
-        <v>6922</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2">
         <v>45108</v>
@@ -941,19 +856,16 @@
       <c r="F22">
         <v>7064</v>
       </c>
-      <c r="G22">
-        <v>7064</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="2">
         <v>45139</v>
@@ -964,19 +876,16 @@
       <c r="F23">
         <v>7204</v>
       </c>
-      <c r="G23">
-        <v>7204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2">
         <v>45170</v>
@@ -987,19 +896,16 @@
       <c r="F24">
         <v>7344</v>
       </c>
-      <c r="G24">
-        <v>7344</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2">
         <v>45200</v>
@@ -1010,19 +916,16 @@
       <c r="F25">
         <v>7481</v>
       </c>
-      <c r="G25">
-        <v>7481</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2">
         <v>45231</v>
@@ -1033,19 +936,16 @@
       <c r="F26">
         <v>7618</v>
       </c>
-      <c r="G26">
-        <v>7618</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2">
         <v>45261</v>
@@ -1056,19 +956,16 @@
       <c r="F27">
         <v>7753</v>
       </c>
-      <c r="G27">
-        <v>7753</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2">
         <v>45292</v>
@@ -1079,19 +976,16 @@
       <c r="F28">
         <v>7887</v>
       </c>
-      <c r="G28">
-        <v>7887</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="2">
         <v>45323</v>
@@ -1102,19 +996,16 @@
       <c r="F29">
         <v>8019</v>
       </c>
-      <c r="G29">
-        <v>8019</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="2">
         <v>45352</v>
@@ -1125,19 +1016,16 @@
       <c r="F30">
         <v>8151</v>
       </c>
-      <c r="G30">
-        <v>8151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="2">
         <v>45383</v>
@@ -1148,19 +1036,16 @@
       <c r="F31">
         <v>8281</v>
       </c>
-      <c r="G31">
-        <v>8281</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="2">
         <v>45413</v>
@@ -1171,19 +1056,16 @@
       <c r="F32">
         <v>8409</v>
       </c>
-      <c r="G32">
-        <v>8409</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="2">
         <v>45444</v>
@@ -1194,19 +1076,16 @@
       <c r="F33">
         <v>8536</v>
       </c>
-      <c r="G33">
-        <v>8536</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="2">
         <v>45474</v>
@@ -1217,22 +1096,19 @@
       <c r="F34">
         <v>8662</v>
       </c>
-      <c r="G34">
-        <v>8662</v>
-      </c>
-      <c r="I34">
+      <c r="H34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" s="2">
         <v>45505</v>
@@ -1243,19 +1119,16 @@
       <c r="F35">
         <v>8787</v>
       </c>
-      <c r="G35">
-        <v>8787</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="2">
         <v>45536</v>
@@ -1266,22 +1139,19 @@
       <c r="F36">
         <v>8910</v>
       </c>
-      <c r="G36">
-        <v>8910</v>
-      </c>
-      <c r="I36">
+      <c r="H36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" s="2">
         <v>45566</v>
@@ -1292,19 +1162,16 @@
       <c r="F37">
         <v>9032</v>
       </c>
-      <c r="G37">
-        <v>9032</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="2">
         <v>45597</v>
@@ -1316,21 +1183,18 @@
         <v>9153</v>
       </c>
       <c r="G38">
-        <v>9153</v>
-      </c>
-      <c r="H38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" s="2">
         <v>45627</v>
@@ -1338,19 +1202,16 @@
       <c r="F39">
         <v>9272</v>
       </c>
-      <c r="G39">
-        <v>9272</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40" s="2">
         <v>45658</v>
@@ -1358,19 +1219,16 @@
       <c r="F40">
         <v>9390</v>
       </c>
-      <c r="G40">
-        <v>9390</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" s="2">
         <v>45689</v>
@@ -1378,19 +1236,16 @@
       <c r="F41">
         <v>9507</v>
       </c>
-      <c r="G41">
-        <v>9507</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" s="2">
         <v>45717</v>
@@ -1398,19 +1253,16 @@
       <c r="F42">
         <v>9623</v>
       </c>
-      <c r="G42">
-        <v>9623</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" s="2">
         <v>45748</v>
@@ -1418,19 +1270,16 @@
       <c r="F43">
         <v>9737</v>
       </c>
-      <c r="G43">
-        <v>9737</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" s="2">
         <v>45778</v>
@@ -1438,19 +1287,16 @@
       <c r="F44">
         <v>9850</v>
       </c>
-      <c r="G44">
-        <v>9850</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" s="2">
         <v>45809</v>
@@ -1458,19 +1304,16 @@
       <c r="F45">
         <v>9962</v>
       </c>
-      <c r="G45">
-        <v>9962</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46" s="2">
         <v>45839</v>
@@ -1478,19 +1321,16 @@
       <c r="F46">
         <v>10072</v>
       </c>
-      <c r="G46">
-        <v>10072</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47" s="2">
         <v>45870</v>
@@ -1498,19 +1338,16 @@
       <c r="F47">
         <v>10182</v>
       </c>
-      <c r="G47">
-        <v>10182</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D48" s="2">
         <v>45901</v>
@@ -1518,19 +1355,16 @@
       <c r="F48">
         <v>10290</v>
       </c>
-      <c r="G48">
-        <v>10290</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49" s="2">
         <v>45931</v>
@@ -1538,19 +1372,16 @@
       <c r="F49">
         <v>10396</v>
       </c>
-      <c r="G49">
-        <v>10396</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50" s="2">
         <v>45962</v>
@@ -1558,19 +1389,16 @@
       <c r="F50">
         <v>10502</v>
       </c>
-      <c r="G50">
-        <v>10502</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51" s="2">
         <v>45992</v>
@@ -1578,19 +1406,16 @@
       <c r="F51">
         <v>10606</v>
       </c>
-      <c r="G51">
-        <v>10606</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D52" s="2">
         <v>46023</v>
@@ -1598,19 +1423,16 @@
       <c r="F52">
         <v>10709</v>
       </c>
-      <c r="G52">
-        <v>10709</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D53" s="2">
         <v>46054</v>
@@ -1618,19 +1440,16 @@
       <c r="F53">
         <v>10811</v>
       </c>
-      <c r="G53">
-        <v>10811</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54" s="2">
         <v>46082</v>
@@ -1638,19 +1457,16 @@
       <c r="F54">
         <v>10911</v>
       </c>
-      <c r="G54">
-        <v>10911</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55" s="2">
         <v>46113</v>
@@ -1658,19 +1474,16 @@
       <c r="F55">
         <v>11011</v>
       </c>
-      <c r="G55">
-        <v>11011</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56" s="2">
         <v>46143</v>
@@ -1678,19 +1491,16 @@
       <c r="F56">
         <v>11109</v>
       </c>
-      <c r="G56">
-        <v>11109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57" s="2">
         <v>46174</v>
@@ -1698,19 +1508,16 @@
       <c r="F57">
         <v>11206</v>
       </c>
-      <c r="G57">
-        <v>11206</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D58" s="2">
         <v>46204</v>
@@ -1718,19 +1525,16 @@
       <c r="F58">
         <v>11302</v>
       </c>
-      <c r="G58">
-        <v>11302</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D59" s="2">
         <v>46235</v>
@@ -1738,19 +1542,16 @@
       <c r="F59">
         <v>11396</v>
       </c>
-      <c r="G59">
-        <v>11396</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60" s="2">
         <v>46266</v>
@@ -1758,19 +1559,16 @@
       <c r="F60">
         <v>11490</v>
       </c>
-      <c r="G60">
-        <v>11490</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D61" s="2">
         <v>46296</v>
@@ -1778,19 +1576,16 @@
       <c r="F61">
         <v>11582</v>
       </c>
-      <c r="G61">
-        <v>11582</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D62" s="2">
         <v>46327</v>
@@ -1798,19 +1593,16 @@
       <c r="F62">
         <v>11673</v>
       </c>
-      <c r="G62">
-        <v>11673</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D63" s="2">
         <v>46357</v>
@@ -1818,19 +1610,16 @@
       <c r="F63">
         <v>11763</v>
       </c>
-      <c r="G63">
-        <v>11763</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D64" s="2">
         <v>46388</v>
@@ -1838,19 +1627,16 @@
       <c r="F64">
         <v>11852</v>
       </c>
-      <c r="G64">
-        <v>11852</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65" s="2">
         <v>46419</v>
@@ -1858,19 +1644,16 @@
       <c r="F65">
         <v>11940</v>
       </c>
-      <c r="G65">
-        <v>11940</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D66" s="2">
         <v>46447</v>
@@ -1878,19 +1661,16 @@
       <c r="F66">
         <v>12027</v>
       </c>
-      <c r="G66">
-        <v>12027</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D67" s="2">
         <v>46478</v>
@@ -1898,19 +1678,16 @@
       <c r="F67">
         <v>12113</v>
       </c>
-      <c r="G67">
-        <v>12113</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D68" s="2">
         <v>46508</v>
@@ -1918,19 +1695,16 @@
       <c r="F68">
         <v>12197</v>
       </c>
-      <c r="G68">
-        <v>12197</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D69" s="2">
         <v>46539</v>
@@ -1938,19 +1712,16 @@
       <c r="F69">
         <v>12280</v>
       </c>
-      <c r="G69">
-        <v>12280</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D70" s="2">
         <v>46569</v>
@@ -1958,19 +1729,16 @@
       <c r="F70">
         <v>12363</v>
       </c>
-      <c r="G70">
-        <v>12363</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D71" s="2">
         <v>46600</v>
@@ -1978,19 +1746,16 @@
       <c r="F71">
         <v>12444</v>
       </c>
-      <c r="G71">
-        <v>12444</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D72" s="2">
         <v>46631</v>
@@ -1998,19 +1763,16 @@
       <c r="F72">
         <v>12524</v>
       </c>
-      <c r="G72">
-        <v>12524</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D73" s="2">
         <v>46661</v>
@@ -2018,19 +1780,16 @@
       <c r="F73">
         <v>12603</v>
       </c>
-      <c r="G73">
-        <v>12603</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D74" s="2">
         <v>46692</v>
@@ -2038,19 +1797,16 @@
       <c r="F74">
         <v>12682</v>
       </c>
-      <c r="G74">
-        <v>12682</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D75" s="2">
         <v>46722</v>
@@ -2058,27 +1814,21 @@
       <c r="F75">
         <v>4800</v>
       </c>
-      <c r="G75">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D76" s="2">
         <v>46753</v>
       </c>
       <c r="F76">
-        <v>4800</v>
-      </c>
-      <c r="G76">
         <v>4800</v>
       </c>
     </row>
